--- a/Template/Tax Planning - PRC IIT - Bonus Allocation.xlsx
+++ b/Template/Tax Planning - PRC IIT - Bonus Allocation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\public\CODING\Bonus_optimization\lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\public\CODING\Bonus_optimization\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>应税工资</t>
   </si>
@@ -273,15 +273,9 @@
     <t>方案序号</t>
   </si>
   <si>
-    <t>月基本工资</t>
-  </si>
-  <si>
     <t>变化</t>
   </si>
   <si>
-    <t>税前开支</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -289,6 +283,9 @@
   </si>
   <si>
     <t>何华月, “十种方案解工资薪金税收优化难题”, 《中国会计报》, 2015年12月4日第11版.</t>
+  </si>
+  <si>
+    <t>公司税前开支</t>
   </si>
 </sst>
 </file>
@@ -301,7 +298,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -351,6 +348,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -506,23 +510,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,10 +559,18 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,10 +579,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1130,144 +1137,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="17" t="s">
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="13" t="s">
+      <c r="T2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AC2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AD2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AE2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AG2" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1275,1366 +1282,1366 @@
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="20">
-        <v>0</v>
-      </c>
-      <c r="D3" s="20">
-        <v>0</v>
-      </c>
-      <c r="E3" s="20">
-        <v>0</v>
-      </c>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
         <v>3500</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <f>ROUND(MAX((MAX(0,C3+MIN(0,D3-F3-G3))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,C3+MIN(0,D3-F3-G3))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="20">
-        <f t="shared" ref="I3:I4" si="0">C3-H3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="20">
+      <c r="I3" s="18">
+        <f t="shared" ref="I3" si="0">C3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
         <f>ROUND(MAX((D3-F3-G3)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="20">
-        <f t="shared" ref="K3:K4" si="1">D3+E3-F3-J3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="20">
-        <f t="shared" ref="L3:L4" si="2">C3+(D3+E3)*B3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="20">
-        <f t="shared" ref="M3:M4" si="3">H3+J3*B3</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="20">
-        <f t="shared" ref="N3:N4" si="4">I3+K3*B3</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="20">
-        <f t="shared" ref="O3:O13" si="5">MAX(0,C3+(D3-F3-G3)*B3)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="20">
-        <f ca="1">IF(O3=0,1,MATCH(O3-0.001,OFFSET(alloc_boundary_1,0,B3-1),1))</f>
+      <c r="K3" s="18">
+        <f t="shared" ref="K3" si="1">D3+E3-F3-J3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="18">
+        <f t="shared" ref="L3" si="2">C3+(D3+E3)*B3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="18">
+        <f t="shared" ref="M3" si="3">H3+J3*B3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="18">
+        <f t="shared" ref="N3" si="4">I3+K3*B3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="18">
+        <f t="shared" ref="O3" si="5">MAX(0,C3+(D3-F3-G3)*B3)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="18">
+        <f t="shared" ref="P3:P13" ca="1" si="6">IF(O3=0,1,MATCH(O3-0.001,OFFSET(alloc_boundary_1,0,B3-1),1))</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="20">
-        <f ca="1">(O3-INDEX(fixed_sal_amt,P3)*B3)*INDEX(fixed_sal_bool,P3)+INDEX(fixed_bonus_amt,P3)*INDEX(fixed_bonus_bool,P3)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="20">
-        <f t="shared" ref="R3:R4" ca="1" si="6">ROUND((O3-Q3)/B3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="20">
-        <f t="shared" ref="S3:S4" ca="1" si="7">Q3</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="20">
-        <f t="shared" ref="T3:T4" ca="1" si="8">R3+MIN(G3+F3,D3+ROUND(C3/B3,2))</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="20">
-        <f t="shared" ref="U3:U4" si="9">E3</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="20">
-        <f t="shared" ref="V3:V4" si="10">F3</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="20">
-        <f t="shared" ref="W3:W4" si="11">G3</f>
+      <c r="Q3" s="18">
+        <f t="shared" ref="Q3:Q13" ca="1" si="7">(O3-INDEX(fixed_sal_amt,P3)*B3)*INDEX(fixed_sal_bool,P3)+INDEX(fixed_bonus_amt,P3)*INDEX(fixed_bonus_bool,P3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="18">
+        <f t="shared" ref="R3" ca="1" si="8">ROUND((O3-Q3)/B3,2)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="18">
+        <f t="shared" ref="S3" ca="1" si="9">Q3</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="18">
+        <f t="shared" ref="T3" ca="1" si="10">R3+MIN(G3+F3,D3+ROUND(C3/B3,2))</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="18">
+        <f t="shared" ref="U3" si="11">E3</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="18">
+        <f t="shared" ref="V3" si="12">F3</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="18">
+        <f t="shared" ref="W3" si="13">G3</f>
         <v>3500</v>
       </c>
-      <c r="X3" s="20">
+      <c r="X3" s="18">
         <f ca="1">ROUND(MAX((MAX(0,S3+MIN(0,T3-V3-W3))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,S3+MIN(0,T3-V3-W3))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="20">
-        <f t="shared" ref="Y3:Y4" ca="1" si="12">S3-X3</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="20">
+      <c r="Y3" s="18">
+        <f t="shared" ref="Y3" ca="1" si="14">S3-X3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="18">
         <f ca="1">ROUND(MAX((T3-V3-W3)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="20">
-        <f t="shared" ref="AA3:AA4" ca="1" si="13">T3+U3-V3-Z3</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="20">
-        <f t="shared" ref="AB3:AB4" ca="1" si="14">S3+(T3+U3)*B3</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="20">
-        <f t="shared" ref="AC3:AC4" ca="1" si="15">X3+Z3*B3</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="20">
-        <f t="shared" ref="AD3:AD4" ca="1" si="16">Y3+AA3*B3</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="20">
-        <f t="shared" ref="AE3:AE4" ca="1" si="17">AB3-L3</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="20">
-        <f t="shared" ref="AF3:AF4" ca="1" si="18">AC3-M3</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="20">
-        <f t="shared" ref="AG3:AG4" ca="1" si="19">AD3-N3</f>
+      <c r="AA3" s="18">
+        <f t="shared" ref="AA3" ca="1" si="15">T3+U3-V3-Z3</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="18">
+        <f t="shared" ref="AB3" ca="1" si="16">S3+(T3+U3)*B3</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="18">
+        <f t="shared" ref="AC3" ca="1" si="17">X3+Z3*B3</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="18">
+        <f t="shared" ref="AD3" ca="1" si="18">Y3+AA3*B3</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="18">
+        <f t="shared" ref="AE3" ca="1" si="19">AB3-L3</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="18">
+        <f t="shared" ref="AF3" ca="1" si="20">AC3-M3</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="18">
+        <f t="shared" ref="AG3" ca="1" si="21">AD3-N3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A13" si="20">A3+1</f>
+        <f t="shared" ref="A4:A13" si="22">A3+1</f>
         <v>1</v>
       </c>
-      <c r="B4" s="14">
-        <v>12</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
         <v>20000</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>20000</v>
       </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
         <v>3500</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="10">
         <f>ROUND(MAX((MAX(0,C4+MIN(0,D4-F4-G4))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,C4+MIN(0,D4-F4-G4))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>1895</v>
       </c>
-      <c r="I4" s="12">
-        <f t="shared" ref="I4:I13" si="21">C4-H4</f>
+      <c r="I4" s="10">
+        <f t="shared" ref="I4:I13" si="23">C4-H4</f>
         <v>18105</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="10">
         <f>ROUND(MAX((D4-F4-G4)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>3120</v>
       </c>
-      <c r="K4" s="12">
-        <f t="shared" ref="K4:K13" si="22">D4+E4-F4-J4</f>
+      <c r="K4" s="10">
+        <f t="shared" ref="K4:K13" si="24">D4+E4-F4-J4</f>
         <v>16880</v>
       </c>
-      <c r="L4" s="12">
-        <f t="shared" ref="L4:L13" si="23">C4+(D4+E4)*B4</f>
-        <v>260000</v>
-      </c>
-      <c r="M4" s="12">
-        <f t="shared" ref="M4:M13" si="24">H4+J4*B4</f>
-        <v>39335</v>
-      </c>
-      <c r="N4" s="12">
-        <f t="shared" ref="N4:N13" si="25">I4+K4*B4</f>
-        <v>220665</v>
-      </c>
-      <c r="O4" s="12">
-        <f t="shared" ref="O4:O13" si="26">MAX(0,C4+(D4-F4-G4)*B4)</f>
-        <v>218000</v>
-      </c>
-      <c r="P4" s="12">
-        <f ca="1">IF(O4=0,1,MATCH(O4-0.001,OFFSET(alloc_boundary_1,0,B4-1),1))</f>
-        <v>5</v>
-      </c>
-      <c r="Q4" s="12">
-        <f ca="1">(O4-INDEX(fixed_sal_amt,P4)*B4)*INDEX(fixed_sal_bool,P4)+INDEX(fixed_bonus_amt,P4)*INDEX(fixed_bonus_bool,P4)</f>
-        <v>54000</v>
-      </c>
-      <c r="R4" s="12">
-        <f t="shared" ref="R4:R13" ca="1" si="27">ROUND((O4-Q4)/B4,2)</f>
-        <v>13666.67</v>
-      </c>
-      <c r="S4" s="12">
-        <f t="shared" ref="S4:S13" ca="1" si="28">Q4</f>
-        <v>54000</v>
-      </c>
-      <c r="T4" s="12">
-        <f t="shared" ref="T4:T13" ca="1" si="29">R4+MIN(G4+F4,D4+ROUND(C4/B4,2))</f>
-        <v>17166.669999999998</v>
-      </c>
-      <c r="U4" s="12">
-        <f t="shared" ref="U4:U13" si="30">E4</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="12">
-        <f t="shared" ref="V4:V13" si="31">F4</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="12">
-        <f t="shared" ref="W4:W13" si="32">G4</f>
+      <c r="L4" s="10">
+        <f t="shared" ref="L4:L13" si="25">C4+(D4+E4)*B4</f>
+        <v>40000</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" ref="M4:M13" si="26">H4+J4*B4</f>
+        <v>5015</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" ref="N4:N13" si="27">I4+K4*B4</f>
+        <v>34985</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" ref="O4:O13" si="28">MAX(0,C4+(D4-F4-G4)*B4)</f>
+        <v>36500</v>
+      </c>
+      <c r="P4" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q4" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>32000</v>
+      </c>
+      <c r="R4" s="10">
+        <f t="shared" ref="R4:R13" ca="1" si="29">ROUND((O4-Q4)/B4,2)</f>
+        <v>4500</v>
+      </c>
+      <c r="S4" s="10">
+        <f t="shared" ref="S4:S13" ca="1" si="30">Q4</f>
+        <v>32000</v>
+      </c>
+      <c r="T4" s="10">
+        <f t="shared" ref="T4:T13" ca="1" si="31">R4+MIN(G4+F4,D4+ROUND(C4/B4,2))</f>
+        <v>8000</v>
+      </c>
+      <c r="U4" s="10">
+        <f t="shared" ref="U4:U13" si="32">E4</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="10">
+        <f t="shared" ref="V4:V13" si="33">F4</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="10">
+        <f t="shared" ref="W4:W13" si="34">G4</f>
         <v>3500</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="10">
         <f ca="1">ROUND(MAX((MAX(0,S4+MIN(0,T4-V4-W4))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,S4+MIN(0,T4-V4-W4))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
-        <v>5295</v>
-      </c>
-      <c r="Y4" s="12">
-        <f t="shared" ref="Y4:Y13" ca="1" si="33">S4-X4</f>
-        <v>48705</v>
-      </c>
-      <c r="Z4" s="12">
+        <v>3095</v>
+      </c>
+      <c r="Y4" s="10">
+        <f t="shared" ref="Y4:Y13" ca="1" si="35">S4-X4</f>
+        <v>28905</v>
+      </c>
+      <c r="Z4" s="10">
         <f ca="1">ROUND(MAX((T4-V4-W4)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
-        <v>2411.67</v>
-      </c>
-      <c r="AA4" s="12">
-        <f t="shared" ref="AA4:AA13" ca="1" si="34">T4+U4-V4-Z4</f>
-        <v>14754.999999999998</v>
-      </c>
-      <c r="AB4" s="12">
-        <f t="shared" ref="AB4:AB13" ca="1" si="35">S4+(T4+U4)*B4</f>
-        <v>260000.03999999998</v>
-      </c>
-      <c r="AC4" s="12">
-        <f t="shared" ref="AC4:AC13" ca="1" si="36">X4+Z4*B4</f>
-        <v>34235.040000000001</v>
-      </c>
-      <c r="AD4" s="12">
-        <f t="shared" ref="AD4:AD13" ca="1" si="37">Y4+AA4*B4</f>
-        <v>225764.99999999997</v>
-      </c>
-      <c r="AE4" s="12">
-        <f t="shared" ref="AE4:AE13" ca="1" si="38">AB4-L4</f>
-        <v>3.9999999979045242E-2</v>
-      </c>
-      <c r="AF4" s="12">
-        <f t="shared" ref="AF4:AF13" ca="1" si="39">AC4-M4</f>
-        <v>-5099.9599999999991</v>
-      </c>
-      <c r="AG4" s="12">
-        <f t="shared" ref="AG4:AG13" ca="1" si="40">AD4-N4</f>
-        <v>5099.9999999999709</v>
+        <v>345</v>
+      </c>
+      <c r="AA4" s="10">
+        <f t="shared" ref="AA4:AA13" ca="1" si="36">T4+U4-V4-Z4</f>
+        <v>7655</v>
+      </c>
+      <c r="AB4" s="10">
+        <f t="shared" ref="AB4:AB13" ca="1" si="37">S4+(T4+U4)*B4</f>
+        <v>40000</v>
+      </c>
+      <c r="AC4" s="10">
+        <f t="shared" ref="AC4:AC13" ca="1" si="38">X4+Z4*B4</f>
+        <v>3440</v>
+      </c>
+      <c r="AD4" s="10">
+        <f t="shared" ref="AD4:AD13" ca="1" si="39">Y4+AA4*B4</f>
+        <v>36560</v>
+      </c>
+      <c r="AE4" s="10">
+        <f t="shared" ref="AE4:AE13" ca="1" si="40">AB4-L4</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="10">
+        <f t="shared" ref="AF4:AF13" ca="1" si="41">AC4-M4</f>
+        <v>-1575</v>
+      </c>
+      <c r="AG4" s="10">
+        <f t="shared" ref="AG4:AG13" ca="1" si="42">AD4-N4</f>
+        <v>1575</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="12">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9">
         <v>20000</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>20000</v>
       </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
         <v>4800</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <f>ROUND(MAX((MAX(0,C5+MIN(0,D5-F5-G5))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,C5+MIN(0,D5-F5-G5))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>1895</v>
       </c>
-      <c r="I5" s="12">
-        <f t="shared" si="21"/>
+      <c r="I5" s="10">
+        <f t="shared" si="23"/>
         <v>18105</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <f>ROUND(MAX((D5-F5-G5)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>2795</v>
       </c>
-      <c r="K5" s="12">
-        <f t="shared" si="22"/>
+      <c r="K5" s="10">
+        <f t="shared" si="24"/>
         <v>17205</v>
       </c>
-      <c r="L5" s="12">
-        <f t="shared" si="23"/>
-        <v>40000</v>
-      </c>
-      <c r="M5" s="12">
-        <f t="shared" si="24"/>
-        <v>4690</v>
-      </c>
-      <c r="N5" s="12">
+      <c r="L5" s="10">
         <f t="shared" si="25"/>
-        <v>35310</v>
-      </c>
-      <c r="O5" s="12">
+        <v>260000</v>
+      </c>
+      <c r="M5" s="10">
         <f t="shared" si="26"/>
-        <v>35200</v>
-      </c>
-      <c r="P5" s="12">
-        <f ca="1">IF(O5=0,1,MATCH(O5-0.001,OFFSET(alloc_boundary_1,0,B5-1),1))</f>
-        <v>4</v>
-      </c>
-      <c r="Q5" s="12">
-        <f ca="1">(O5-INDEX(fixed_sal_amt,P5)*B5)*INDEX(fixed_sal_bool,P5)+INDEX(fixed_bonus_amt,P5)*INDEX(fixed_bonus_bool,P5)</f>
-        <v>30700</v>
-      </c>
-      <c r="R5" s="12">
-        <f t="shared" ca="1" si="27"/>
-        <v>4500</v>
-      </c>
-      <c r="S5" s="12">
-        <f t="shared" ca="1" si="28"/>
-        <v>30700</v>
-      </c>
-      <c r="T5" s="12">
+        <v>35435</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="27"/>
+        <v>224565</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="28"/>
+        <v>202400</v>
+      </c>
+      <c r="P5" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>54000</v>
+      </c>
+      <c r="R5" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>9300</v>
-      </c>
-      <c r="U5" s="12">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="12">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="12">
+        <v>12366.67</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>54000</v>
+      </c>
+      <c r="T5" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>17166.669999999998</v>
+      </c>
+      <c r="U5" s="10">
         <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="10">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="10">
+        <f t="shared" si="34"/>
         <v>4800</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="10">
         <f ca="1">ROUND(MAX((MAX(0,S5+MIN(0,T5-V5-W5))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,S5+MIN(0,T5-V5-W5))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
-        <v>2965</v>
-      </c>
-      <c r="Y5" s="12">
-        <f t="shared" ca="1" si="33"/>
-        <v>27735</v>
-      </c>
-      <c r="Z5" s="12">
+        <v>5295</v>
+      </c>
+      <c r="Y5" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>48705</v>
+      </c>
+      <c r="Z5" s="10">
         <f ca="1">ROUND(MAX((T5-V5-W5)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
-        <v>345</v>
-      </c>
-      <c r="AA5" s="12">
-        <f t="shared" ca="1" si="34"/>
-        <v>8955</v>
-      </c>
-      <c r="AB5" s="12">
-        <f t="shared" ca="1" si="35"/>
-        <v>40000</v>
-      </c>
-      <c r="AC5" s="12">
+        <v>2086.67</v>
+      </c>
+      <c r="AA5" s="10">
         <f t="shared" ca="1" si="36"/>
-        <v>3310</v>
-      </c>
-      <c r="AD5" s="12">
+        <v>15079.999999999998</v>
+      </c>
+      <c r="AB5" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>36690</v>
-      </c>
-      <c r="AE5" s="12">
+        <v>260000.03999999998</v>
+      </c>
+      <c r="AC5" s="10">
         <f t="shared" ca="1" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="12">
+        <v>30335.040000000001</v>
+      </c>
+      <c r="AD5" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>-1380</v>
-      </c>
-      <c r="AG5" s="12">
+        <v>229664.99999999997</v>
+      </c>
+      <c r="AE5" s="10">
         <f t="shared" ca="1" si="40"/>
-        <v>1380</v>
+        <v>3.9999999979045242E-2</v>
+      </c>
+      <c r="AF5" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>-5099.9599999999991</v>
+      </c>
+      <c r="AG5" s="10">
+        <f t="shared" ca="1" si="42"/>
+        <v>5099.9999999999709</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="B6" s="14">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>500000</v>
+      </c>
+      <c r="D6" s="9">
         <v>50000</v>
       </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
         <v>3000</v>
       </c>
-      <c r="G6" s="11">
-        <v>3500</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="G6" s="9">
+        <v>4800</v>
+      </c>
+      <c r="H6" s="10">
         <f>ROUND(MAX((MAX(0,C6+MIN(0,D6-F6-G6))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,C6+MIN(0,D6-F6-G6))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
-        <v>436495</v>
-      </c>
-      <c r="I6" s="12">
-        <f t="shared" si="21"/>
-        <v>563505</v>
-      </c>
-      <c r="J6" s="12">
+        <v>147245</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="23"/>
+        <v>352755</v>
+      </c>
+      <c r="J6" s="10">
         <f>ROUND(MAX((D6-F6-G6)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
-        <v>10295</v>
-      </c>
-      <c r="K6" s="12">
-        <f t="shared" si="22"/>
-        <v>36705</v>
-      </c>
-      <c r="L6" s="12">
-        <f t="shared" si="23"/>
-        <v>1150000</v>
-      </c>
-      <c r="M6" s="12">
+        <v>9905</v>
+      </c>
+      <c r="K6" s="10">
         <f t="shared" si="24"/>
-        <v>467380</v>
-      </c>
-      <c r="N6" s="12">
+        <v>37095</v>
+      </c>
+      <c r="L6" s="10">
         <f t="shared" si="25"/>
-        <v>673620</v>
-      </c>
-      <c r="O6" s="12">
+        <v>550000</v>
+      </c>
+      <c r="M6" s="10">
         <f t="shared" si="26"/>
-        <v>1130500</v>
-      </c>
-      <c r="P6" s="12">
-        <f ca="1">IF(O6=0,1,MATCH(O6-0.001,OFFSET(alloc_boundary_1,0,B6-1),1))</f>
-        <v>10</v>
-      </c>
-      <c r="Q6" s="12">
-        <f ca="1">(O6-INDEX(fixed_sal_amt,P6)*B6)*INDEX(fixed_sal_bool,P6)+INDEX(fixed_bonus_amt,P6)*INDEX(fixed_bonus_bool,P6)</f>
-        <v>660000</v>
-      </c>
-      <c r="R6" s="12">
-        <f t="shared" ca="1" si="27"/>
-        <v>156833.32999999999</v>
-      </c>
-      <c r="S6" s="12">
-        <f t="shared" ca="1" si="28"/>
-        <v>660000</v>
-      </c>
-      <c r="T6" s="12">
+        <v>157150</v>
+      </c>
+      <c r="N6" s="10">
+        <f t="shared" si="27"/>
+        <v>389850</v>
+      </c>
+      <c r="O6" s="10">
+        <f t="shared" si="28"/>
+        <v>542200</v>
+      </c>
+      <c r="P6" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>420000</v>
+      </c>
+      <c r="R6" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>163333.32999999999</v>
-      </c>
-      <c r="U6" s="12">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="12">
-        <f t="shared" si="31"/>
+        <v>122200</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>420000</v>
+      </c>
+      <c r="T6" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>130000</v>
+      </c>
+      <c r="U6" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
+        <f t="shared" si="33"/>
         <v>3000</v>
       </c>
-      <c r="W6" s="12">
-        <f t="shared" si="32"/>
-        <v>3500</v>
-      </c>
-      <c r="X6" s="12">
+      <c r="W6" s="10">
+        <f t="shared" si="34"/>
+        <v>4800</v>
+      </c>
+      <c r="X6" s="10">
         <f ca="1">ROUND(MAX((MAX(0,S6+MIN(0,T6-V6-W6))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,S6+MIN(0,T6-V6-W6))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
-        <v>195245</v>
-      </c>
-      <c r="Y6" s="12">
-        <f t="shared" ca="1" si="33"/>
-        <v>464755</v>
-      </c>
-      <c r="Z6" s="12">
+        <v>103995</v>
+      </c>
+      <c r="Y6" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>316005</v>
+      </c>
+      <c r="Z6" s="10">
         <f ca="1">ROUND(MAX((T6-V6-W6)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
-        <v>57070</v>
-      </c>
-      <c r="AA6" s="12">
-        <f t="shared" ca="1" si="34"/>
-        <v>103263.32999999999</v>
-      </c>
-      <c r="AB6" s="12">
-        <f t="shared" ca="1" si="35"/>
-        <v>1149999.99</v>
-      </c>
-      <c r="AC6" s="12">
+        <v>41485</v>
+      </c>
+      <c r="AA6" s="10">
         <f t="shared" ca="1" si="36"/>
-        <v>366455</v>
-      </c>
-      <c r="AD6" s="12">
+        <v>85515</v>
+      </c>
+      <c r="AB6" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>774544.99</v>
-      </c>
-      <c r="AE6" s="12">
+        <v>550000</v>
+      </c>
+      <c r="AC6" s="10">
         <f t="shared" ca="1" si="38"/>
-        <v>-1.0000000009313226E-2</v>
-      </c>
-      <c r="AF6" s="12">
+        <v>145480</v>
+      </c>
+      <c r="AD6" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>-100925</v>
-      </c>
-      <c r="AG6" s="12">
+        <v>401520</v>
+      </c>
+      <c r="AE6" s="10">
         <f t="shared" ca="1" si="40"/>
-        <v>100924.98999999999</v>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>-11670</v>
+      </c>
+      <c r="AG6" s="10">
+        <f t="shared" ca="1" si="42"/>
+        <v>11670</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>1</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>100000</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>40000</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>100</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>3000</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <v>3500</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <f>ROUND(MAX((MAX(0,C7+MIN(0,D7-F7-G7))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,C7+MIN(0,D7-F7-G7))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>19445</v>
       </c>
-      <c r="I7" s="12">
-        <f t="shared" si="21"/>
+      <c r="I7" s="10">
+        <f t="shared" si="23"/>
         <v>80555</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="10">
         <f>ROUND(MAX((D7-F7-G7)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>7370</v>
       </c>
-      <c r="K7" s="12">
-        <f t="shared" si="22"/>
+      <c r="K7" s="10">
+        <f t="shared" si="24"/>
         <v>29730</v>
       </c>
-      <c r="L7" s="12">
-        <f t="shared" si="23"/>
+      <c r="L7" s="10">
+        <f t="shared" si="25"/>
         <v>140100</v>
       </c>
-      <c r="M7" s="12">
-        <f t="shared" si="24"/>
+      <c r="M7" s="10">
+        <f t="shared" si="26"/>
         <v>26815</v>
       </c>
-      <c r="N7" s="12">
-        <f t="shared" si="25"/>
+      <c r="N7" s="10">
+        <f t="shared" si="27"/>
         <v>110285</v>
       </c>
-      <c r="O7" s="12">
-        <f t="shared" si="26"/>
+      <c r="O7" s="10">
+        <f t="shared" si="28"/>
         <v>133500</v>
       </c>
-      <c r="P7" s="12">
-        <f ca="1">IF(O7=0,1,MATCH(O7-0.001,OFFSET(alloc_boundary_1,0,B7-1),1))</f>
+      <c r="P7" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>6</v>
       </c>
-      <c r="Q7" s="12">
-        <f ca="1">(O7-INDEX(fixed_sal_amt,P7)*B7)*INDEX(fixed_sal_bool,P7)+INDEX(fixed_bonus_amt,P7)*INDEX(fixed_bonus_bool,P7)</f>
+      <c r="Q7" s="10">
+        <f t="shared" ca="1" si="7"/>
         <v>108000</v>
       </c>
-      <c r="R7" s="12">
-        <f t="shared" ca="1" si="27"/>
+      <c r="R7" s="10">
+        <f t="shared" ca="1" si="29"/>
         <v>25500</v>
       </c>
-      <c r="S7" s="12">
-        <f t="shared" ca="1" si="28"/>
+      <c r="S7" s="10">
+        <f t="shared" ca="1" si="30"/>
         <v>108000</v>
       </c>
-      <c r="T7" s="12">
-        <f t="shared" ca="1" si="29"/>
+      <c r="T7" s="10">
+        <f t="shared" ca="1" si="31"/>
         <v>32000</v>
       </c>
-      <c r="U7" s="12">
-        <f t="shared" si="30"/>
+      <c r="U7" s="10">
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
-      <c r="V7" s="12">
-        <f t="shared" si="31"/>
+      <c r="V7" s="10">
+        <f t="shared" si="33"/>
         <v>3000</v>
       </c>
-      <c r="W7" s="12">
-        <f t="shared" si="32"/>
+      <c r="W7" s="10">
+        <f t="shared" si="34"/>
         <v>3500</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="10">
         <f ca="1">ROUND(MAX((MAX(0,S7+MIN(0,T7-V7-W7))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,S7+MIN(0,T7-V7-W7))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>21045</v>
       </c>
-      <c r="Y7" s="12">
-        <f t="shared" ca="1" si="33"/>
+      <c r="Y7" s="10">
+        <f t="shared" ca="1" si="35"/>
         <v>86955</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="Z7" s="10">
         <f ca="1">ROUND(MAX((T7-V7-W7)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>5370</v>
       </c>
-      <c r="AA7" s="12">
-        <f t="shared" ca="1" si="34"/>
+      <c r="AA7" s="10">
+        <f t="shared" ca="1" si="36"/>
         <v>23730</v>
       </c>
-      <c r="AB7" s="12">
-        <f t="shared" ca="1" si="35"/>
+      <c r="AB7" s="10">
+        <f t="shared" ca="1" si="37"/>
         <v>140100</v>
       </c>
-      <c r="AC7" s="12">
-        <f t="shared" ca="1" si="36"/>
+      <c r="AC7" s="10">
+        <f t="shared" ca="1" si="38"/>
         <v>26415</v>
       </c>
-      <c r="AD7" s="12">
-        <f t="shared" ca="1" si="37"/>
+      <c r="AD7" s="10">
+        <f t="shared" ca="1" si="39"/>
         <v>110685</v>
       </c>
-      <c r="AE7" s="12">
-        <f t="shared" ca="1" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="12">
-        <f t="shared" ca="1" si="39"/>
+      <c r="AE7" s="10">
+        <f t="shared" ca="1" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="10">
+        <f t="shared" ca="1" si="41"/>
         <v>-400</v>
       </c>
-      <c r="AG7" s="12">
-        <f t="shared" ca="1" si="40"/>
+      <c r="AG7" s="10">
+        <f t="shared" ca="1" si="42"/>
         <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="B8" s="14">
-        <v>12</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
         <v>3000</v>
       </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
         <v>3500</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <f>ROUND(MAX((MAX(0,C8+MIN(0,D8-F8-G8))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,C8+MIN(0,D8-F8-G8))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="12">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
+      <c r="I8" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
         <f>ROUND(MAX((D8-F8-G8)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="12">
-        <f t="shared" si="22"/>
+      <c r="K8" s="10">
+        <f t="shared" si="24"/>
         <v>3000</v>
       </c>
-      <c r="L8" s="12">
-        <f t="shared" si="23"/>
-        <v>36000</v>
-      </c>
-      <c r="M8" s="12">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="12">
+      <c r="L8" s="10">
         <f t="shared" si="25"/>
-        <v>36000</v>
-      </c>
-      <c r="O8" s="12">
+        <v>3000</v>
+      </c>
+      <c r="M8" s="10">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P8" s="12">
-        <f ca="1">IF(O8=0,1,MATCH(O8-0.001,OFFSET(alloc_boundary_1,0,B8-1),1))</f>
+      <c r="N8" s="10">
+        <f t="shared" si="27"/>
+        <v>3000</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="12">
-        <f ca="1">(O8-INDEX(fixed_sal_amt,P8)*B8)*INDEX(fixed_sal_bool,P8)+INDEX(fixed_bonus_amt,P8)*INDEX(fixed_bonus_bool,P8)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="12">
-        <f t="shared" ca="1" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="12">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="12">
+      <c r="Q8" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="10">
         <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
-      <c r="U8" s="12">
-        <f t="shared" si="30"/>
+      <c r="S8" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
-      <c r="V8" s="12">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="12">
-        <f t="shared" si="32"/>
+      <c r="V8" s="10">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="10">
+        <f t="shared" si="34"/>
         <v>3500</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8" s="10">
         <f ca="1">ROUND(MAX((MAX(0,S8+MIN(0,T8-V8-W8))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,S8+MIN(0,T8-V8-W8))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="12">
-        <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="12">
+      <c r="Y8" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="10">
         <f ca="1">ROUND(MAX((T8-V8-W8)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="12">
-        <f t="shared" ca="1" si="34"/>
+      <c r="AA8" s="10">
+        <f t="shared" ca="1" si="36"/>
         <v>3000</v>
       </c>
-      <c r="AB8" s="12">
-        <f t="shared" ca="1" si="35"/>
-        <v>36000</v>
-      </c>
-      <c r="AC8" s="12">
-        <f t="shared" ca="1" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="12">
+      <c r="AB8" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>36000</v>
-      </c>
-      <c r="AE8" s="12">
+        <v>3000</v>
+      </c>
+      <c r="AC8" s="10">
         <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="12">
+      <c r="AD8" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="12">
+        <v>3000</v>
+      </c>
+      <c r="AE8" s="10">
         <f t="shared" ca="1" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="10">
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>1</v>
       </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
         <v>1200</v>
       </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
         <v>4000</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <v>3500</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <f>ROUND(MAX((MAX(0,C9+MIN(0,D9-F9-G9))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,C9+MIN(0,D9-F9-G9))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="12">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
+      <c r="I9" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
         <f>ROUND(MAX((D9-F9-G9)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="12">
-        <f t="shared" si="22"/>
+      <c r="K9" s="10">
+        <f t="shared" si="24"/>
         <v>-2800</v>
       </c>
-      <c r="L9" s="12">
-        <f t="shared" si="23"/>
+      <c r="L9" s="10">
+        <f t="shared" si="25"/>
         <v>1200</v>
       </c>
-      <c r="M9" s="12">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="12">
-        <f t="shared" si="25"/>
+      <c r="M9" s="10">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="27"/>
         <v>-2800</v>
       </c>
-      <c r="O9" s="12">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="12">
-        <f ca="1">IF(O9=0,1,MATCH(O9-0.001,OFFSET(alloc_boundary_1,0,B9-1),1))</f>
+      <c r="O9" s="10">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="12">
-        <f ca="1">(O9-INDEX(fixed_sal_amt,P9)*B9)*INDEX(fixed_sal_bool,P9)+INDEX(fixed_bonus_amt,P9)*INDEX(fixed_bonus_bool,P9)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="12">
-        <f t="shared" ca="1" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="12">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="12">
+      <c r="Q9" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="10">
         <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="10">
+        <f t="shared" ca="1" si="31"/>
         <v>1200</v>
       </c>
-      <c r="U9" s="12">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="12">
-        <f t="shared" si="31"/>
+      <c r="U9" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <f t="shared" si="33"/>
         <v>4000</v>
       </c>
-      <c r="W9" s="12">
-        <f t="shared" si="32"/>
+      <c r="W9" s="10">
+        <f t="shared" si="34"/>
         <v>3500</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="10">
         <f ca="1">ROUND(MAX((MAX(0,S9+MIN(0,T9-V9-W9))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,S9+MIN(0,T9-V9-W9))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="12">
-        <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="12">
+      <c r="Y9" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="10">
         <f ca="1">ROUND(MAX((T9-V9-W9)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="12">
-        <f t="shared" ca="1" si="34"/>
+      <c r="AA9" s="10">
+        <f t="shared" ca="1" si="36"/>
         <v>-2800</v>
       </c>
-      <c r="AB9" s="12">
-        <f t="shared" ca="1" si="35"/>
+      <c r="AB9" s="10">
+        <f t="shared" ca="1" si="37"/>
         <v>1200</v>
       </c>
-      <c r="AC9" s="12">
-        <f t="shared" ca="1" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="12">
-        <f t="shared" ca="1" si="37"/>
+      <c r="AC9" s="10">
+        <f t="shared" ca="1" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="10">
+        <f t="shared" ca="1" si="39"/>
         <v>-2800</v>
       </c>
-      <c r="AE9" s="12">
-        <f t="shared" ca="1" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="12">
-        <f t="shared" ca="1" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="12">
+      <c r="AE9" s="10">
         <f t="shared" ca="1" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="10">
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>1</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10">
         <f>ROUND(MAX((MAX(0,C10+MIN(0,D10-F10-G10))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,C10+MIN(0,D10-F10-G10))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="12">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
+      <c r="I10" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
         <f>ROUND(MAX((D10-F10-G10)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="12">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="12">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="12">
+      <c r="K10" s="10">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="N10" s="12">
+      <c r="L10" s="10">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="O10" s="12">
+      <c r="M10" s="10">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P10" s="12">
-        <f ca="1">IF(O10=0,1,MATCH(O10-0.001,OFFSET(alloc_boundary_1,0,B10-1),1))</f>
+      <c r="N10" s="10">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="12">
-        <f ca="1">(O10-INDEX(fixed_sal_amt,P10)*B10)*INDEX(fixed_sal_bool,P10)+INDEX(fixed_bonus_amt,P10)*INDEX(fixed_bonus_bool,P10)</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="12">
-        <f t="shared" ca="1" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="12">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="12">
+      <c r="Q10" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="10">
         <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
-      <c r="U10" s="12">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="12">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="12">
+      <c r="S10" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="X10" s="12">
+      <c r="V10" s="10">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="10">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="10">
         <f ca="1">ROUND(MAX((MAX(0,S10+MIN(0,T10-V10-W10))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,S10+MIN(0,T10-V10-W10))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="12">
-        <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="12">
+      <c r="Y10" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="10">
         <f ca="1">ROUND(MAX((T10-V10-W10)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="12">
-        <f t="shared" ca="1" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="12">
-        <f t="shared" ca="1" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="12">
+      <c r="AA10" s="10">
         <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="12">
+      <c r="AB10" s="10">
         <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="12">
+      <c r="AC10" s="10">
         <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="12">
+      <c r="AD10" s="10">
         <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="12">
+      <c r="AE10" s="10">
         <f t="shared" ca="1" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="10">
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>1</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10">
         <f>ROUND(MAX((MAX(0,C11+MIN(0,D11-F11-G11))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,C11+MIN(0,D11-F11-G11))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="12">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
+      <c r="I11" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
         <f>ROUND(MAX((D11-F11-G11)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="12">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
+      <c r="K11" s="10">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="N11" s="12">
+      <c r="L11" s="10">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="O11" s="12">
+      <c r="M11" s="10">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P11" s="12">
-        <f ca="1">IF(O11=0,1,MATCH(O11-0.001,OFFSET(alloc_boundary_1,0,B11-1),1))</f>
+      <c r="N11" s="10">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="12">
-        <f ca="1">(O11-INDEX(fixed_sal_amt,P11)*B11)*INDEX(fixed_sal_bool,P11)+INDEX(fixed_bonus_amt,P11)*INDEX(fixed_bonus_bool,P11)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="12">
-        <f t="shared" ca="1" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="12">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="12">
+      <c r="Q11" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="10">
         <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
-      <c r="U11" s="12">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="12">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="12">
+      <c r="S11" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="X11" s="12">
+      <c r="V11" s="10">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="10">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="10">
         <f ca="1">ROUND(MAX((MAX(0,S11+MIN(0,T11-V11-W11))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,S11+MIN(0,T11-V11-W11))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="12">
-        <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="12">
+      <c r="Y11" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="10">
         <f ca="1">ROUND(MAX((T11-V11-W11)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="12">
-        <f t="shared" ca="1" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="12">
-        <f t="shared" ca="1" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="12">
+      <c r="AA11" s="10">
         <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="12">
+      <c r="AB11" s="10">
         <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="12">
+      <c r="AC11" s="10">
         <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="12">
+      <c r="AD11" s="10">
         <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="12">
+      <c r="AE11" s="10">
         <f t="shared" ca="1" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="10">
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>1</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10">
         <f>ROUND(MAX((MAX(0,C12+MIN(0,D12-F12-G12))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,C12+MIN(0,D12-F12-G12))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="12">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="I12" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
         <f>ROUND(MAX((D12-F12-G12)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="12">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="12">
+      <c r="K12" s="10">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="N12" s="12">
+      <c r="L12" s="10">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="O12" s="12">
+      <c r="M12" s="10">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P12" s="12">
-        <f ca="1">IF(O12=0,1,MATCH(O12-0.001,OFFSET(alloc_boundary_1,0,B12-1),1))</f>
+      <c r="N12" s="10">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="12">
-        <f ca="1">(O12-INDEX(fixed_sal_amt,P12)*B12)*INDEX(fixed_sal_bool,P12)+INDEX(fixed_bonus_amt,P12)*INDEX(fixed_bonus_bool,P12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="12">
-        <f t="shared" ca="1" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="12">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="12">
+      <c r="Q12" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="10">
         <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
-      <c r="U12" s="12">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="12">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="12">
+      <c r="S12" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="X12" s="12">
+      <c r="V12" s="10">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="10">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="10">
         <f ca="1">ROUND(MAX((MAX(0,S12+MIN(0,T12-V12-W12))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,S12+MIN(0,T12-V12-W12))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="12">
-        <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="12">
+      <c r="Y12" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="10">
         <f ca="1">ROUND(MAX((T12-V12-W12)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="12">
-        <f t="shared" ca="1" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="12">
-        <f t="shared" ca="1" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="12">
+      <c r="AA12" s="10">
         <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="12">
+      <c r="AB12" s="10">
         <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="12">
+      <c r="AC12" s="10">
         <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AD12" s="10">
         <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="12">
+      <c r="AE12" s="10">
         <f t="shared" ca="1" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="10">
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10">
         <f>ROUND(MAX((MAX(0,C13+MIN(0,D13-F13-G13))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,C13+MIN(0,D13-F13-G13))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="12">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
+      <c r="I13" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
         <f>ROUND(MAX((D13-F13-G13)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="12">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="12">
+      <c r="K13" s="10">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="N13" s="12">
+      <c r="L13" s="10">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="O13" s="12">
+      <c r="M13" s="10">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P13" s="12">
-        <f ca="1">IF(O13=0,1,MATCH(O13-0.001,OFFSET(alloc_boundary_1,0,B13-1),1))</f>
+      <c r="N13" s="10">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="12">
-        <f ca="1">(O13-INDEX(fixed_sal_amt,P13)*B13)*INDEX(fixed_sal_bool,P13)+INDEX(fixed_bonus_amt,P13)*INDEX(fixed_bonus_bool,P13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="12">
-        <f t="shared" ca="1" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="12">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="12">
+      <c r="Q13" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="10">
         <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
-      <c r="U13" s="12">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="12">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="12">
+      <c r="S13" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="10">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="X13" s="12">
+      <c r="V13" s="10">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="10">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="10">
         <f ca="1">ROUND(MAX((MAX(0,S13+MIN(0,T13-V13-W13))/12&gt;{0,3,9,18,70,110,160}*500)*MAX(0,S13+MIN(0,T13-V13-W13))*{3,10,20,25,30,35,45}%-{0,21,111,201,551,1101,2701}*5),2)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="12">
-        <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="12">
+      <c r="Y13" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="10">
         <f ca="1">ROUND(MAX((T13-V13-W13)*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="12">
-        <f t="shared" ca="1" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="12">
-        <f t="shared" ca="1" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="12">
+      <c r="AA13" s="10">
         <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="12">
+      <c r="AB13" s="10">
         <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="12">
+      <c r="AC13" s="10">
         <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AD13" s="10">
         <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="12">
+      <c r="AE13" s="10">
         <f t="shared" ca="1" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="10">
+        <f t="shared" ca="1" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -2675,633 +2682,633 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>2</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>3</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>4</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>5</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>6</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>7</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>8</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>9</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>10</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>11</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="21">
-        <v>0</v>
-      </c>
-      <c r="C3" s="22">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
-      </c>
-      <c r="E3" s="22">
-        <v>0</v>
-      </c>
-      <c r="F3" s="23">
-        <v>0</v>
-      </c>
-      <c r="G3" s="23">
-        <v>0</v>
-      </c>
-      <c r="H3" s="23">
-        <v>0</v>
-      </c>
-      <c r="I3" s="23">
-        <v>0</v>
-      </c>
-      <c r="J3" s="23">
-        <v>0</v>
-      </c>
-      <c r="K3" s="23">
-        <v>0</v>
-      </c>
-      <c r="L3" s="23">
-        <v>0</v>
-      </c>
-      <c r="M3" s="23">
-        <v>0</v>
-      </c>
-      <c r="N3" s="23">
-        <v>0</v>
-      </c>
-      <c r="O3" s="23">
-        <v>0</v>
-      </c>
-      <c r="P3" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="23">
+      <c r="B3" s="19">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21">
+        <v>0</v>
+      </c>
+      <c r="J3" s="21">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0</v>
+      </c>
+      <c r="L3" s="21">
+        <v>0</v>
+      </c>
+      <c r="M3" s="21">
+        <v>0</v>
+      </c>
+      <c r="N3" s="21">
+        <v>0</v>
+      </c>
+      <c r="O3" s="21">
+        <v>0</v>
+      </c>
+      <c r="P3" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <f t="shared" ref="A4:A12" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="19">
         <v>1500</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <v>1</v>
       </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
         <v>1500</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="21">
         <v>3000</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="21">
         <v>4500</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="21">
         <v>6000</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="21">
         <v>7500</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="21">
         <v>9000</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="21">
         <v>10500</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="21">
         <v>12000</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="21">
         <v>13500</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="21">
         <v>15000</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="21">
         <v>16500</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="21">
         <v>18000</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="21">
-        <v>0</v>
-      </c>
-      <c r="C5" s="22">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
+      <c r="B5" s="19">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
         <v>18000</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>1</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="21">
         <v>19500</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="21">
         <v>21000</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="21">
         <v>22500</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="21">
         <v>24000</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="21">
         <v>25500</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="21">
         <v>27000</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="21">
         <v>28500</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="21">
         <v>30000</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="21">
         <v>31500</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="21">
         <v>33000</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="21">
         <v>34500</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="21">
         <v>36000</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>4500</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>1</v>
       </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0</v>
-      </c>
-      <c r="F6" s="23">
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
         <v>31700</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="21">
         <v>37700</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="23">
         <v>43050</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="23">
         <v>47550</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="21">
         <v>52050</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="21">
         <v>56550</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="21">
         <v>61050</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="21">
         <v>65550</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="21">
         <v>70050</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="23">
         <v>74550</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="21">
         <v>79050</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="21">
         <v>83550</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="21">
-        <v>0</v>
-      </c>
-      <c r="C7" s="22">
-        <v>0</v>
-      </c>
-      <c r="D7" s="21">
+      <c r="B7" s="19">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
         <v>54000</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>1</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="21">
         <v>58500</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="21">
         <v>63000</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="23">
         <v>67500</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="21">
         <v>72000</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="21">
         <v>76500</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="23">
         <v>81000</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="21">
         <v>85500</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="21">
         <v>90000</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="21">
         <v>94500</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="21">
         <v>99000</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="21">
         <v>103500</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="21">
         <v>108000</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="21">
-        <v>0</v>
-      </c>
-      <c r="C8" s="22">
-        <v>0</v>
-      </c>
-      <c r="D8" s="21">
+      <c r="B8" s="19">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19">
         <v>108000</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <v>1</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="23">
         <v>121500</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="21">
         <v>166500</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="23">
         <v>204000</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="21">
         <v>239000</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="21">
         <v>274000</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="21">
         <v>309000</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="21">
         <v>344000</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="21">
         <v>379000</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="21">
         <v>414000</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="21">
         <v>449000</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="21">
         <v>484000</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="21">
         <v>519000</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="19">
         <v>35000</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <v>1</v>
       </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0</v>
-      </c>
-      <c r="F9" s="25">
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
         <v>195250</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="21">
         <v>247500</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="23">
         <v>292500</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="21">
         <v>337500</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="21">
         <v>382000</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="21">
         <v>417000</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="21">
         <v>452000</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="21">
         <v>487000</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="21">
         <v>522000</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="21">
         <v>557000</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="21">
         <v>592000</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="21">
         <v>627000</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="21">
-        <v>0</v>
-      </c>
-      <c r="C10" s="22">
-        <v>0</v>
-      </c>
-      <c r="D10" s="21">
+      <c r="B10" s="19">
+        <v>0</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19">
         <v>420000</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <v>1</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="21">
         <v>455000</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="21">
         <v>490000</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="23">
         <v>525000</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="21">
         <v>560000</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="21">
         <v>595000</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="21">
         <v>630000</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="21">
         <v>665000</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="21">
         <v>700000</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="21">
         <v>735000</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="21">
         <v>770000</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="21">
         <v>805000</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="21">
         <v>840000</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="19">
         <v>55000</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="20">
         <v>1</v>
       </c>
-      <c r="D11" s="21">
-        <v>0</v>
-      </c>
-      <c r="E11" s="22">
-        <v>0</v>
-      </c>
-      <c r="F11" s="23">
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21">
         <v>620000</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="21">
         <v>691666.66700000002</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="23">
         <v>763333.33299999998</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="21">
         <v>835000</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="21">
         <v>906666.66700000002</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="21">
         <v>978333.33299999998</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="24">
         <v>1052500</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="24">
         <v>1132500</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="24">
         <v>1212500</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="24">
         <v>1292500</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="24">
         <v>1372500</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="24">
         <v>1452500</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="21">
-        <v>0</v>
-      </c>
-      <c r="C12" s="22">
-        <v>0</v>
-      </c>
-      <c r="D12" s="21">
+      <c r="B12" s="19">
+        <v>0</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19">
         <v>660000</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="20">
         <v>1</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="21">
         <v>715000</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="21">
         <v>770000</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="21">
         <v>825000</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="21">
         <v>880000</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="21">
         <v>935000</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="21">
         <v>990000</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="21">
         <v>1052500</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="21">
         <v>1132500</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="21">
         <v>1212500</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="21">
         <v>1292500</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="21">
         <v>1372500</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="21">
         <v>1452500</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B16" s="31" t="s">
-        <v>44</v>
+      <c r="B16" s="26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3311,7 +3318,10 @@
     <mergeCell ref="F1:Q1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>